--- a/outputs/DHAKA1.xlsx
+++ b/outputs/DHAKA1.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: The page prominently features a "Bug Reports, Suggestions, Other Feedback" section, which indicates that this is the place where users should go for issue tracking and reporting. This aligns with Abi's motivations to accomplish tasks and her comprehensive information processing style, as she would likely read through the relevant sections to find where to create an issue.</t>
+Why: The page contains a section titled "Bug Reports, Suggestions, Other Feedback," which is relevant to creating a new issue. ABI, who is motivated to accomplish tasks and uses a comprehensive information processing style, would likely recognize this section as a step toward finding the issue tracker.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style, Learning Style
-Why: The "Issues" link is clearly visible in the navigation bar at the top of the page. Abi, who processes information comprehensively, would have likely read through the navigation options or the relevant sections on the page to understand where to go next. Additionally, the "Bug Reports, Suggestions, Other Feedback" section provides further context about reporting issues, which would guide Abi to click on the "Issues" link. This aligns with her motivation to complete the task and her preference for process-oriented learning.</t>
+Facets: Information Processing Style, Motivations
+Why: The "Issues" link is prominently displayed at the top of the page, making it easy to find. ABI, who uses a comprehensive information processing style, would likely read through the page and notice the "Issues" link as a logical next step to find the issue tracker. Additionally, ABI's motivation to accomplish tasks would drive them to click on the "Issues" link to proceed with creating a new issue.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: After clicking on the "Issues" link, Abi will land on a page specifically dedicated to listing issues. This page prominently displays existing issues and includes a "New issue" button, which makes it clear that she is in the correct place for creating a new issue. This aligns with Abi's motivation to complete the task and her comprehensive information processing style, as the page provides clear and relevant information indicating progress toward creating a new issue.</t>
+Why: After clicking the "Issues" link, ABI will land on a page that clearly lists existing issues and includes a "New issue" button. This page provides a clear indication that ABI is in the right place to create a new issue, thus confirming progress toward their goal. The presence of the "New issue" button and the list of issues align with ABI's motivation to accomplish tasks and their comprehensive information processing style, as it provides all the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: The "New issue" button is clearly labeled and prominently displayed on the page. Given Abi's motivation to complete the task and her comprehensive information processing style, she would recognize that clicking this button is the next logical step in creating a new issue. The page provides sufficient context and information for Abi to understand that this button will lead her to the issue creation process.</t>
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy to find. ABI, who is motivated to accomplish tasks and uses a comprehensive information processing style, will recognize this button as the next step in creating a new issue. The page provides a straightforward path to proceed, aligning with ABI's need for clear instructions and reducing the likelihood of confusion.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: After clicking the "New issue" button, Abi lands on a page that clearly presents several options for creating different types of issues, such as "Bug report," "Suggestion for improvement," and "Report a security vulnerability," each with a "Get started" button. This clear organization and labeling provide Abi with the necessary information to understand that she is on the right track and making progress toward creating a new issue. The layout and instructions align with her motivations to complete the task and her comprehensive information processing style, ensuring she has all the information needed to proceed.</t>
+Why: After clicking the "New issue" button, ABI lands on a page that clearly categorizes different types of issues (e.g., Bug report, Suggestion for improvement, etc.) with "Get started" buttons next to each category. This layout is straightforward and provides clear next steps, making it easy for ABI to understand that they are making progress toward their goal. The page provides all the necessary information to proceed, aligning with ABI's motivation to accomplish tasks and their comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: The page clearly lists different types of issues that can be reported, each with a "Get started" button. For someone looking to report a bug, the "Bug report" section is clearly labeled and includes a "Get started" button. This straightforward presentation aligns with Abi's motivation to complete the task and her comprehensive information processing style, making it clear what action she should take next. The page provides sufficient guidance, ensuring Abi knows what to do at this step.</t>
+Why: The page clearly labels different types of issues, including "Bug report," with a "Get started" button next to it. This straightforward labeling and call-to-action align with ABI's motivation to accomplish tasks and their comprehensive information processing style. ABI will understand that clicking "Get started" for "Bug report" is the correct next step to proceed with creating a new issue.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style, Learning Style
-Why: After clicking the "Get Started" button for "Bug Report," Abi lands on a well-structured bug report form. The form includes clear fields for all necessary information, such as the title, version, operating system, and steps to reproduce the behavior. Instructions and notes are provided to guide Abi through the process. This structured and guided approach aligns with Abi's motivations to complete the task, her comprehensive information processing style, and her preference for process-oriented learning. The page provides all the required information, ensuring Abi knows she is making progress toward her goal.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking the "Get started" button for "Bug report," ABI lands on a detailed form specifically for reporting bugs. The form includes fields for all necessary information, such as the title, version, operating system, steps to reproduce the behavior, and more. This structured format provides clear guidance and ensures that ABI knows they are making progress toward their goal. The comprehensive nature of the form aligns with ABI's information processing style, and the clear instructions and required fields support ABI's motivation to complete the task.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style, Learning Style
-Why: The bug report form is clearly structured with labeled fields and instructions, making it straightforward for Abi to understand what information is required at each step. The form includes prompts for specific details such as the title, version, operating system, and steps to reproduce the behavior, which aligns with Abi's preference for comprehensive information processing and process-oriented learning. This clear guidance helps Abi know what to do and ensures she has all the information needed to fill out the form correctly.</t>
+Facets: Motivations, Information Processing Style
+Why: The bug report form is well-structured and clearly labeled, with fields for all necessary information such as the title, version, operating system, and steps to reproduce the behavior. Each field is accompanied by a brief description, guiding ABI on what information to provide. This aligns with ABI's motivation to complete tasks and their comprehensive information processing style, as the form provides clear instructions and a logical flow for entering the required information.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: After filling out the bug report form, the page still clearly displays the information Abi has entered and includes a "Submit new issue" button. The form remains structured and provides clear feedback, showing that Abi has completed the necessary steps. This aligns with Abi's motivation to complete the task and her comprehensive information processing style, as she can see that she has filled in the required fields and is ready to submit the issue. The presence of the "Submit new issue" button clearly indicates the next step, ensuring Abi knows she is making progress toward her goal.</t>
+Why: After filling out the bug report form, ABI will see that all required fields are completed and the "Submit new issue" button is available. The form's structure and the presence of a clear submission button provide feedback that ABI is making progress toward their goal. The detailed nature of the form ensures that ABI has provided all necessary information, aligning with their comprehensive information processing style and motivation to complete the task.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: The "Submit new issue" button is prominently displayed at the bottom of the form. The form is clearly labeled, and Abi has filled out all the required fields. Given her motivations to complete the task and her comprehensive information processing style, Abi will recognize that clicking this button is the final step to submit her bug report. The page provides clear guidance and visual cues indicating that she is ready to submit the issue, ensuring she knows what to do at this step.</t>
+Why: The "Submit new issue" button is clearly visible and labeled at the bottom of the form. ABI, who is motivated to complete tasks and uses a comprehensive information processing style, will understand that clicking this button is the final step to submit the bug report. The page provides clear instructions and a logical flow, ensuring that ABI knows what to do and feels confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: After clicking the "Submit new issue" button, Abi is taken to a page that confirms her bug report has been successfully submitted. The page displays the details of the submitted issue, including the title, description, and other relevant information she entered. This clear confirmation and visibility of her submitted bug report align with Abi's motivation to complete the task and her comprehensive information processing style. She will know she has done the right thing and made progress toward her goal, as the page provides all the information she needs to see that the issue has been successfully created.</t>
+Why: After clicking the "Submit new issue" button, ABI lands on a page that displays the submitted bug report with all the details they entered. The presence of the issue title, description, and other information confirms that the issue has been successfully created. This feedback ensures that ABI knows they did the right thing and are making progress toward their goal. The clear presentation of the submitted information aligns with ABI's comprehensive information processing style and motivation to complete tasks.</t>
         </is>
       </c>
     </row>

--- a/outputs/DHAKA1.xlsx
+++ b/outputs/DHAKA1.xlsx
@@ -424,238 +424,273 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Looking at the GitHub repository page for JabRef shown in the image, I don't think ABI would naturally think of finding the issue tracker as an obvious step toward creating a new issue. Here's why:
-1. While there is a list of repository elements on the left side of the page that includes various options and sections, ABI tends to be more comprehensive in her problem-solving and likes to explore thoroughly before proceeding.
-2. ABI is typically not confident about making assumptions and prefers clear, explicit confirmation that she's taking the right steps. The connection between "creating an issue" and "finding an issue tracker" may not be immediately obvious to her.
-3. The page shows multiple sections and options, which could cause ABI to be uncertain about which path is the correct one to take, given her tendency to want to understand all aspects before proceeding.
-4. Given ABI's methodical approach and preference for gathering information before acting, she might first look for documentation or help sections to ensure she understands the proper procedure for creating an issue.
-To better support ABI's cognitive style, the interface could:
-- Provide clearer labeling or a direct "Create Issue" button
-- Include step-by-step instructions for common tasks like issue creation
-- Offer more explicit guidance about where to find the issue tracker
-- Add tooltips or help text explaining the purpose of different sections
-So no, ABI likely would not have naturally thought of finding the issue tracker as an obvious step toward creating a new issue without more explicit guidance or confirmation that this is the correct approach.</t>
+          <t>Answer: YES
+Facets: 
+1. Information Processing Style
+2. Motivations
+Why: ABI will consider finding the issue tracker as a necessary step because:
+1. Her comprehensive information processing style means she wants to understand the complete process of creating an issue
+2. She is motivated to find the right place to create the issue as this directly relates to her task goal
+3. The page shows a clear repository structure with various sections, and since she needs to create an issue, finding the issue tracker would be a logical first step in her mind to accomplish her goal
+The layout of the GitHub repository page is familiar enough that ABI would recognize this as a necessary step, and it aligns with her methodical approach to completing tasks.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Looking at this GitHub repository page for JabRef Bibliography Management, I can see the 'Issues' link is clearly visible in the left sidebar navigation menu. The interface follows GitHub's standard layout, which makes finding the Issues section straightforward for the following reasons:
-1. The 'Issues' link is prominently placed in the left sidebar
-2. It uses the standard GitHub issue tracking icon (circle with dot)
-3. The link is presented in a clean, hierarchical navigation menu
-4. The text "Issues" is clear and unambiguous
-However, for Abi who:
-- Likes to be thorough and methodical
-- Prefers to gather information before acting
-- Is not confident about performing unfamiliar tasks
-This step might present some hesitation because:
-1. There are multiple navigation options and Abi might want to verify this is the correct path
-2. Abi might wonder if there's preparation needed before accessing issues
-3. Abi might want to understand what happens after clicking the link
-While the interface makes the 'Issues' link findable, Abi would likely benefit from:
-- Hover tooltips explaining what the Issues section is for
-- Clear indication that this is where to report problems or suggestions
-- Some contextual help about the issue creation process
-The page is technically sufficient for taking this action, but could be more supportive for users with Abi's characteristics who prefer explicit confirmation they're on the right path.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Motivations
+Why: ABI will likely click the 'Issues' link because:
+1. The 'Issues' link is clearly visible in the navigation menu at the top of the page
+2. The term "Issues" is a standard GitHub term and its placement is conventional, which aligns with her preference for familiar interfaces
+3. The link is straightforward and unambiguous - there's no technical jargon that would confuse her
+4. It directly relates to her goal of creating an issue, making it a motivated action
+5. The page layout is clean and the Issues tab is prominently displayed, making it easy for her to process the information and make the connection between her goal and this action
+Even with her low computer self-efficacy, this is a clear enough action that aligns with her goal and doesn't require any risky exploration or tinkering.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Yes, Abi will know they did the right thing and are making progress for several reasons:
-1. After clicking the "Issues" link (which shows "284" next to it), they will see a clear list of existing issues and a prominent green "New Issue" button in the top right.
-2. The page provides clear visual feedback:
-- Shows an organized list of current issues
-- Displays issue status indicators (open/closed)
-- Has clear labeling and filtering options
-- The issue count matches what was shown on the tab (284 open issues)
-3. The interface provides multiple confirming elements that this is the issue tracking section:
-- Labels for categorizing issues
-- Milestones tracking
-- Issue numbers and timestamps
-- Discussion threads and comments
-- Issue status tags and types
-4. The presence of issue management tools like:
-- Filter and search capabilities
-- Sort options
-- Assignment features
-- Project organization tools
-Given Abi's processing style of wanting to be thorough and certain they're on the right path, these clear indicators will help confirm they've reached the correct place to create a new issue. The consistent labeling and organized layout provides the confidence that they're in the right section to accomplish their goal.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Motivations
+Why: ABI will know she's on the right track because:
+1. The page clearly shows a list of existing issues, confirming she's in the issues section
+2. There's a prominent green "New Issue" button in the top right, which directly relates to her goal of creating a new issue
+3. The page layout provides comprehensive information about existing issues, which aligns with her information processing style
+4. The interface is straightforward and shows familiar GitHub issue tracking elements (like issue titles, labels, and status)
+5. The page URL and navigation breadcrumb confirm she's in the Issues section of JabRef
+6. The presence of other issues and their format gives her a clear indication that this is where issues are managed
+This feedback provides ABI with clear confirmation that she's made progress toward her goal without requiring any technical expertise or risky exploration.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yes, ABI would likely be able to find and click the 'New Issue' button because:
-1. The button is clearly visible in the top-right corner of the issues list
-2. It's colored in a distinct green color that makes it stand out from other elements
-3. It's labeled with clear, straightforward text "New Issue"
-4. The button is positioned in a conventional location where users typically expect to find action buttons
-5. There are no competing or confusing buttons nearby that could cause uncertainty
-Given ABI's methodical and comprehensive information processing style, she would likely:
-- Notice she's already on the Issues page (indicated by the "284 Open" tab)
-- Scan the page to look for ways to create a new issue
-- Quickly spot the prominent green "New Issue" button
-- Feel confident this is the right action since the button's purpose is unambiguous
-The page design provides good visual hierarchy and clear labeling that aligns well with ABI's need for certainty before taking action. She would likely feel comfortable proceeding with clicking this button.</t>
+          <t>Answer: YES
+Facets:
+1. Computer Self-Efficacy
+2. Motivations
+3. Attitude toward Risk
+Why: ABI will feel confident to click the 'New Issue' button because:
+1. The 'New Issue' button is prominently displayed in green, making it visually distinct and easy to find
+2. The button's label clearly indicates its purpose with straightforward text "New Issue" that directly matches her goal
+3. It's positioned in a conventional location (top right) where action buttons are typically found
+4. There's no technical jargon or ambiguous terminology that might confuse her
+5. The button appears to be the primary action on the page, reducing the risk of clicking the wrong thing
+6. She can see examples of other issues on the page, which gives her context and confidence that she's in the right place
+The clear labeling and prominent positioning make this a low-risk action that aligns with her goal, making her comfortable to proceed despite her generally cautious nature with technology.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Looking at the GitHub interface for the JabRef repository, if someone clicks on the 'New Issue' button, they'll land on a page that clearly shows different issue creation options with "Get started" buttons. The interface provides clear feedback with several categories:
-1. Bug report - With a "Get started" button and description "Create a report to help us improve"
-2. Suggestion for improvement - With a "Get started" button and description "Suggest an enhancement"
-3. Report a security vulnerability - With a "Report a vulnerability" button and description
-4. Help section - With an "Open" button and reference to discourse.jabref.org
-5. Feature requests - With an "Open" button for requesting missing features
-The user would know they're making progress because:
-1. They see clear options for different types of issues
-2. Each option has a descriptive label and explanation
-3. The "Get started" buttons indicate clear next steps
-4. The interface confirms they're in the issue creation process
-5. They can choose the appropriate category for their specific need
-This provides good confirmation that they're on the right path toward creating an issue and gives them all the information needed to proceed with the correct issue type.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Attitude toward Risk
+Why: ABI will likely feel uncertain and confused because:
+1. The page presents multiple options (Bug report, Suggestion for improvement, Report a security vulnerability) without clear guidance on which one to choose
+2. Her comprehensive information processing style means she'll want to understand the differences between these options before proceeding, but there's minimal explanation
+3. Each option has a different button ("Get started", "Report a vulnerability", "Open") which could create uncertainty about the consequences of each choice
+4. With her low computer self-efficacy, having to make this choice without detailed information about each option type could make her hesitant
+5. Her risk-averse nature means she'll be uncomfortable choosing between options without understanding the full implications of each choice
+6. The page doesn't provide enough detailed information to help her make an informed decision about which type of issue to create
+This intermediate step with multiple choices but insufficient explanation would likely make ABI unsure if she's making the right progress toward her goal.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Yes, ABI should be able to perform this action because:
-1. The interface is clear and straightforward, with distinct sections and buttons
-2. The "Get started" button next to "Bug report" is prominently displayed and visually clear
-3. The purpose is explicitly stated ("Create a report to help us improve")
-4. The button is distinctively colored in green, making it stand out
-5. There are no competing or confusing options - while there are other "Get started" buttons, they're clearly associated with different purposes
-6. The heading "Bug report" directly matches what ABI is trying to accomplish
-Given ABI's characteristics (someone who likes to be thorough and certain before taking action), this layout provides enough context and clarity for her to feel confident clicking the correct button. The page has good information architecture with clear labels and purpose statements for each section, which aligns well with ABI's methodical approach to tasks.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Attitude toward Risk
+4. None of the Above (Lack of sufficient information)
+Why: ABI will likely hesitate to click the 'Get Started' button because:
+1. With her comprehensive information processing style, she needs more detailed information about:
+   - What constitutes a bug report vs. a suggestion for improvement
+   - What information she'll need to provide after clicking
+   - What will happen after clicking 'Get Started'
+2. The brief description "Create a report to help us improve" is too vague and doesn't provide enough context for her to feel confident about her choice
+3. Her risk-averse nature means she'll be uncomfortable proceeding without understanding the full implications of choosing 'Bug Report' over other options
+4. With her low computer self-efficacy, she needs more guidance to ensure she's selecting the correct type of issue
+5. There's no clear indication if she can change her selection later if she chooses the wrong option
+6. The presence of multiple options without detailed explanations creates decision anxiety
+ABI would prefer more detailed information about each option before making a choice, as she wants to avoid making mistakes or having to start over.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Looking at the bug report form interface, Abi will know they're making progress because:
-1. The page clearly shows a structured bug report form with specific fields to fill out, indicating they've reached the correct place to report an issue.
-2. The page header explicitly states "Issue: Bug report" confirming they're in the right section.
-3. The form provides clear guidance with:
-- Required fields marked with asterisks
-- Specific input fields for JabRef version and operating system
-- A detailed section for steps to reproduce the behavior
-- An appendix section for additional information
-4. There's helpful contextual information like:
-- A reminder to check existing issues to avoid duplicates
-- A link to a list of existing issues
-- Instructions about backing up libraries before testing
-- Guidelines for providing complete bug reports
-So yes, Abi will know they're making progress because the interface provides clear confirmation they're in the bug reporting section and presents a structured form specifically designed for reporting bugs. The form's comprehensive nature helps ensure they can provide all necessary information for their bug report.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. None of the Above (Overwhelming information)
+4. Attitude toward Risk
+Why: ABI will feel overwhelmed and uncertain because:
+1. The form presents too much technical information at once:
+   - JabRef version selection
+   - Operating system details
+   - Development build information
+   - Technical requirements about backups
+   - Multiple checkboxes with technical terms
+2. Her comprehensive information processing style will be overwhelmed by:
+   - Multiple required fields (marked with asterisks)
+   - Various technical sections to fill out
+   - Links to external resources that need to be checked
+   - Complex instructions about development versions and backups
+3. Her low computer self-efficacy will make her uncertain about:
+   - Whether she can provide all the required technical information
+   - Understanding terms like "development build" and "bibliography file"
+   - Knowing if she's filling out the form correctly
+4. The form's complexity and technical nature creates risk concerns:
+   - Fear of providing incorrect information
+   - Uncertainty about the consequences of checking/unchecking boxes
+   - Worry about making mistakes in the technical details
+The page provides too much technical information without clear, step-by-step guidance that would make ABI feel confident about proceeding.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Looking at the bug report form shown in the GitHub interface, ABI would likely feel somewhat uncertain about this step for several reasons:
-1. Cognitive Style (Risk-averse, needs comprehensive information):
-- While the form has some helpful guidance, like "Create a report to help us improve" and asterisks marking required fields, ABI may hesitate about:
-- Whether she's including the right level of detail
-- If she might accidentally submit something incorrect
-- What constitutes a "good" bug report
-2. Learning Style (Comprehensive learner):
-- The form could be more supportive for ABI by:
-- Including examples of well-written bug reports
-- Providing more detailed field descriptions
-- Offering clearer guidance on what makes a useful bug report
-3. Self-Efficacy (Lower confidence with technology):
-- The technical nature of some fields like "Details on version and operating system" may make ABI uncertain
-- She might question if she has the right technical knowledge to fill this out properly
-4. Motivation (Task-focused):
-- While the form is focused on the task, ABI might worry about whether completing it will actually help solve her problem
-Recommendations to improve for ABI:
-- Add sample text or examples for each field
-- Include a "Preview" option before final submission
-- Provide more explicit guidance on what information is most helpful
-- Add tooltips or help text explaining technical terms
-The page provides basic structure but could be more supportive for someone with ABI's cognitive style who needs more assurance and comprehensive guidance.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Attitude toward Risk
+4. None of the Above (Complex form with technical requirements)
+Why: ABI will struggle to fill out this form because:
+1. Information Processing Style concerns:
+   - Multiple sections require technical information that needs comprehensive understanding
+   - Links to external resources ("list of existing issues", "builds.jabref.org") create additional cognitive load
+   - Instructions are scattered throughout the form rather than presented in a clear, sequential manner
+2. Computer Self-Efficacy issues:
+   - Technical terms like "development build", "bibliography file", "Log File" are not explained
+   - Required fields (marked with asterisks) involve technical knowledge
+   - No clear guidance on how to find some of the required technical information
+3. Risk Aversion factors:
+   - Warnings about backups create anxiety about potential data loss
+   - Uncertainty about the consequences of providing incorrect information
+   - No clear indication if entries can be modified after submission
+4. Additional barriers:
+   - Form requires technical details that ABI might not know how to obtain
+   - No step-by-step guidance for filling out each section
+   - Checkboxes with technical requirements might be confusing
+   - The form assumes technical knowledge about JabRef versions and operating systems
+The complexity and technical nature of the form, combined with lack of clear guidance, would make ABI uncomfortable and uncertain about how to proceed correctly.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>In this scenario, Abi would know they're making progress for several reasons:
-1. Clear Visual Feedback:
-- The bug report form clearly shows required fields marked with asterisks (*)
-- There's a green "Submit new issue" button at the bottom
-- The form has specific sections for different types of information needed
-- A "Preview" tab is available to review the report before submission
-2. Structured Guidance:
-- The form provides specific fields for:
-  - Version information
-  - Operating system details
-  - Steps to reproduce the bug
-  - Appendix for additional information
-- Checkboxes confirm important steps like backing up libraries
-- Clear instructions about using the GitHub issue tracker
-3. Progress Indicators:
-- Form fields show completion status
-- Drop-down menus provide valid options
-- The interface shows which fields still need attention
-4. Contextual Help:
-- Links to external resources are provided
-- Explanatory text helps with form completion
-- Option to "choose a different type" if this isn't the right form
-So yes, Abi would know they're making progress because the interface provides clear structure, feedback, and confirmation of proper form completion. The form's design guides users through the bug reporting process step-by-step, making it clear what information is required and when they've provided everything needed.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Attitude toward Risk
+4. None of the Above (Lack of confirmation/feedback)
+Why: ABI will be uncertain about her progress because:
+1. Information Processing Style issues:
+   - No clear indication if the information provided is sufficient or correct
+   - Technical details in the form (like log files and version numbers) lack explanation
+   - Multiple sections with different requirements create confusion about completeness
+2. Computer Self-Efficacy concerns:
+   - The markdown editor and its formatting options might be intimidating
+   - Technical terms in the form remain unexplained
+   - No validation feedback about whether entered information is correct
+   - Uncertainty about whether the technical details provided are adequate
+3. Risk-related concerns:
+   - No preview of how the submitted issue will look
+   - No clear indication if she can edit the issue after submission
+   - Uncertainty about whether checking the backup-related boxes was correct
+   - No confirmation about whether the steps provided are sufficient
+4. Additional barriers:
+   - No immediate feedback about the completeness of required fields
+   - No indication of what happens after clicking "Submit new issue"
+   - Lack of confirmation that the information provided is what developers need
+   - No clear way to verify if all necessary information has been included
+Even though ABI has filled out the form, she won't feel confident that she's done it correctly or completely due to the lack of clear feedback and confirmation.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Based on the image shown, which appears to be GitHub's issue creation interface for JabRef, this step should be straightforward but there may be some initial challenges:
-1. Navigation Clarity:
-- The navigation menu at the top shows "Issues" as one of the main tabs
-- The interface already shows the issue creation form, so the "Create issue" button may have already been clicked
-2. Potential Concerns for Abi:
-- Abi, being thorough and process-oriented, might feel uncertain if she's in the right place
-- She may want to verify she's creating the correct type of issue
-- The page shows "Issue: Bug report" at the top, which helps confirm the context
-- There's a helpful note saying "Create a report to help us improve. If this doesn't look right, choose a different type"
-3. Interface Support:
-- The form is well-structured with clear fields
-- Required fields are marked with asterisks
-- There's contextual help and guidance throughout
-Given Abi's characteristics:
-- She likes to be thorough and certain before proceeding
-- She prefers clear, step-by-step processes
-- She may want to double-check she's in the right place
-Verdict: Yes, Abi should be able to find and use the issue tracker, but she may take extra time to verify she's following the correct process. The page provides enough guidance and context to support her careful approach to task completion.</t>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Attitude toward Risk
+3. Information Processing Style
+4. None of the Above (Uncertainty about form completeness)
+Why: ABI will hesitate to click 'Submit new issue' because:
+1. Computer Self-Efficacy concerns:
+   - Uncertainty about whether she's filled out all technical fields correctly
+   - Doubt about whether the provided log file format is correct
+   - Unsure if the operating system and version details are sufficient
+2. Risk-related concerns:
+   - No clear indication if she can edit the issue after submission
+   - No preview of how the complete issue will appear
+   - Fear of submitting incomplete or incorrect information
+   - Concern about the consequences of potential mistakes
+3. Information Processing Style issues:
+   - No clear confirmation that all required fields are properly filled
+   - No summary or review step before final submission
+   - Unclear if all the technical requirements have been met
+   - No validation feedback about the completeness of the form
+4. Additional barriers:
+   - No clear indication of what happens after clicking submit
+   - No way to verify if the information provided is sufficient
+   - Lack of confirmation about whether all required fields are filled correctly
+   - Uncertainty about whether the technical details are in the right format
+Given ABI's careful nature and need for confirmation, she would want more validation and assurance before taking this final step.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Based on this GitHub issue page view, yes, Abi would know they are making progress for several reasons:
-1. The page clearly shows an issue submission form for JabRef with fields for entering bug details.
-2. There are clear visual indicators this is the right place:
-   - The page header shows "aCESSBILITI BUG #11601"
-   - There's an "Open" status label
-   - The form includes relevant sections like "Operating system", "Steps to reproduce", etc.
-3. The form provides structured guidance on what information to include:
-   - Checkboxes for verifying testing steps
-   - Space for version details
-   - A formatted comment box with formatting tools
-   - File attachment capabilities
-4. The interface follows standard GitHub issue tracker conventions that developers would recognize.
-5. The navigation breadcrumb at the top shows they're in the Issues section of the JabRef repository.
-So Abi would have clear confirmation they've reached the correct place to submit an issue, and the form provides all the necessary fields to report their bug effectively. The structured nature of the form would help guide them through providing all required information.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Motivations
+Why: ABI will know she successfully created the issue because:
+1. Clear confirmation indicators:
+   - The issue number (#11601) is displayed at the top
+   - There's a green "Open" status indicator
+   - All her submitted information is visible and formatted properly
+   - The page shows her as the issue creator
+2. Satisfies her information processing style:
+   - She can see all the information she entered displayed in an organized format
+   - The submission appears as a complete, structured post
+   - She can verify all the details she provided are included
+3. Reduces computer self-efficacy concerns:
+   - The interface shows her issue was successfully created
+   - All sections are clearly displayed and organized
+   - No error messages or warnings are present
+4. Confirms her goal achievement:
+   - The page clearly shows she's created a new issue
+   - The interface provides options for further interaction (like adding comments)
+   - She can see her issue is now part of the official tracking system
+The clear feedback and organized display of her submitted information would give ABI confidence that she successfully completed her task.</t>
         </is>
       </c>
     </row>

--- a/outputs/DHAKA1.xlsx
+++ b/outputs/DHAKA1.xlsx
@@ -446,11 +446,11 @@
 3. Motivations
 Why: ABI will likely click the 'Issues' link because:
 1. The 'Issues' link is clearly visible in the navigation menu at the top of the page
-2. The term "Issues" is a standard GitHub term and its placement is conventional, which aligns with her preference for familiar interfaces
-3. The link is straightforward and unambiguous - there's no technical jargon that would confuse her
-4. It directly relates to her goal of creating an issue, making it a motivated action
-5. The page layout is clean and the Issues tab is prominently displayed, making it easy for her to process the information and make the connection between her goal and this action
-Even with her low computer self-efficacy, this is a clear enough action that aligns with her goal and doesn't require any risky exploration or tinkering.</t>
+2. The term "Issues" is a standard GitHub term and its placement in the main navigation makes it an obvious choice for creating a new issue
+3. Her comprehensive information processing style is satisfied as the link is clearly labeled and its purpose is straightforward
+4. Despite her low computer self-efficacy, this is a simple, well-labeled action that directly relates to her goal
+5. She is motivated to click as this clearly aligns with her task of creating a new issue
+The interface provides clear navigation without requiring any technical knowledge or risky exploration, making ABI comfortable to proceed with this action.</t>
         </is>
       </c>
     </row>
@@ -464,12 +464,13 @@
 3. Motivations
 Why: ABI will know she's on the right track because:
 1. The page clearly shows a list of existing issues, confirming she's in the issues section
-2. There's a prominent green "New Issue" button in the top right, which directly relates to her goal of creating a new issue
-3. The page layout provides comprehensive information about existing issues, which aligns with her information processing style
-4. The interface is straightforward and shows familiar GitHub issue tracking elements (like issue titles, labels, and status)
-5. The page URL and navigation breadcrumb confirm she's in the Issues section of JabRef
-6. The presence of other issues and their format gives her a clear indication that this is where issues are managed
-This feedback provides ABI with clear confirmation that she's made progress toward her goal without requiring any technical expertise or risky exploration.</t>
+2. There's a visible green "New issue" button in the top right, which directly relates to her goal of creating a new issue
+3. Her comprehensive information processing style is satisfied as she can:
+   - See examples of how other issues are structured
+   - Understand the format and components of issues (labels, titles, etc.)
+4. The familiar layout and clear indication of being in the "Issues" section (284 Open issues shown) provides confidence that she's in the right place
+5. The interface provides clear feedback about her location and available actions, supporting her lower computer self-efficacy
+The page provides enough context and clear next steps that align with her goal, making her confident she's made progress.</t>
         </is>
       </c>
     </row>
@@ -479,16 +480,18 @@
           <t>Answer: YES
 Facets:
 1. Computer Self-Efficacy
-2. Motivations
-3. Attitude toward Risk
+2. Attitude toward Risk
+3. Motivations
 Why: ABI will feel confident to click the 'New Issue' button because:
-1. The 'New Issue' button is prominently displayed in green, making it visually distinct and easy to find
-2. The button's label clearly indicates its purpose with straightforward text "New Issue" that directly matches her goal
-3. It's positioned in a conventional location (top right) where action buttons are typically found
-4. There's no technical jargon or ambiguous terminology that might confuse her
-5. The button appears to be the primary action on the page, reducing the risk of clicking the wrong thing
-6. She can see examples of other issues on the page, which gives her context and confidence that she's in the right place
-The clear labeling and prominent positioning make this a low-risk action that aligns with her goal, making her comfortable to proceed despite her generally cautious nature with technology.</t>
+1. The button is clearly visible and prominently placed in green color at the top right
+2. The button's label "New issue" explicitly states its purpose, which directly aligns with her goal
+3. It's a straightforward action with clear feedback (the button is distinctly styled)
+4. Despite her low computer self-efficacy, this is a low-risk action because:
+   - The button's purpose is unambiguous
+   - It's a standard UI element in a prominent location
+   - The text clearly indicates what will happen
+5. She's motivated to click it as it's the obvious next step to achieve her goal of creating a new issue
+The interface provides a clear, single path forward without requiring any technical knowledge or risky exploration, making ABI comfortable to proceed with this action.</t>
         </is>
       </c>
     </row>
@@ -502,12 +505,16 @@
 3. Attitude toward Risk
 Why: ABI will likely feel uncertain and confused because:
 1. The page presents multiple options (Bug report, Suggestion for improvement, Report a security vulnerability) without clear guidance on which one to choose
-2. Her comprehensive information processing style means she'll want to understand the differences between these options before proceeding, but there's minimal explanation
-3. Each option has a different button ("Get started", "Report a vulnerability", "Open") which could create uncertainty about the consequences of each choice
-4. With her low computer self-efficacy, having to make this choice without detailed information about each option type could make her hesitant
-5. Her risk-averse nature means she'll be uncomfortable choosing between options without understanding the full implications of each choice
-6. The page doesn't provide enough detailed information to help her make an informed decision about which type of issue to create
-This intermediate step with multiple choices but insufficient explanation would likely make ABI unsure if she's making the right progress toward her goal.</t>
+2. Her comprehensive information processing style means she wants to understand all options before proceeding, but:
+   - The descriptions under each option are very brief
+   - There's no detailed information about what each type of issue entails
+3. With her low computer self-efficacy, she might:
+   - Worry about choosing the wrong type of issue
+   - Feel unsure about the differences between the options
+4. Her risk-averse nature will make her hesitant to proceed without being certain about:
+   - The implications of each choice
+   - Whether she can change her selection later if she makes a mistake
+The page requires making a choice without providing enough detailed information for ABI to feel confident about her decision, which could cause her to stall or abandon the task.</t>
         </is>
       </c>
     </row>
@@ -519,18 +526,22 @@
 1. Information Processing Style
 2. Computer Self-Efficacy
 3. Attitude toward Risk
-4. None of the Above (Lack of sufficient information)
-Why: ABI will likely hesitate to click the 'Get Started' button because:
-1. With her comprehensive information processing style, she needs more detailed information about:
-   - What constitutes a bug report vs. a suggestion for improvement
-   - What information she'll need to provide after clicking
-   - What will happen after clicking 'Get Started'
-2. The brief description "Create a report to help us improve" is too vague and doesn't provide enough context for her to feel confident about her choice
-3. Her risk-averse nature means she'll be uncomfortable proceeding without understanding the full implications of choosing 'Bug Report' over other options
-4. With her low computer self-efficacy, she needs more guidance to ensure she's selecting the correct type of issue
-5. There's no clear indication if she can change her selection later if she chooses the wrong option
-6. The presence of multiple options without detailed explanations creates decision anxiety
-ABI would prefer more detailed information about each option before making a choice, as she wants to avoid making mistakes or having to start over.</t>
+4. None of the Above (Overwhelmed by choices)
+Why: ABI will likely hesitate to click 'Get Started' because:
+1. Her comprehensive information processing style is not satisfied:
+   - The descriptions are too brief
+   - There's no detailed explanation of what constitutes a bug versus a suggestion
+   - No information about what happens after clicking 'Get Started'
+2. With her low computer self-efficacy:
+   - She may doubt if her issue qualifies as a bug
+   - She's uncertain about the consequences of choosing the wrong option
+   - No indication if she can change her selection later
+3. Her risk-averse nature makes her uncomfortable because:
+   - Multiple options create decision anxiety
+   - No clear way back if she makes the wrong choice
+   - Lack of detailed guidance about the process
+4. The page presents too many choices (Bug report, Suggestion, Security vulnerability) without enough context to make an informed decision, which can overwhelm ABI
+ABI needs more detailed information and clearer guidance to feel confident about proceeding with any option.</t>
         </is>
       </c>
     </row>
@@ -541,29 +552,27 @@
 Facets:
 1. Information Processing Style
 2. Computer Self-Efficacy
-3. None of the Above (Overwhelming information)
-4. Attitude toward Risk
+3. None of the Above (Overwhelmed by form complexity)
+4. Learning Style
 Why: ABI will feel overwhelmed and uncertain because:
-1. The form presents too much technical information at once:
-   - JabRef version selection
-   - Operating system details
-   - Development build information
-   - Technical requirements about backups
-   - Multiple checkboxes with technical terms
-2. Her comprehensive information processing style will be overwhelmed by:
+1. Her comprehensive information processing style is challenged by:
+   - Multiple form fields with technical requirements
+   - Complex instructions about checking development builds
+   - References to technical concepts (JabRef version, operating system details)
+   - Links to external resources that need to be checked
+2. Low computer self-efficacy is triggered by:
+   - Technical terminology throughout the form
+   - Required steps involving development builds and version checking
+   - Need to understand and provide system-specific information
+3. The form is overwhelming because:
+   - Too many fields to fill out at once
    - Multiple required fields (marked with asterisks)
-   - Various technical sections to fill out
-   - Links to external resources that need to be checked
-   - Complex instructions about development versions and backups
-3. Her low computer self-efficacy will make her uncertain about:
-   - Whether she can provide all the required technical information
-   - Understanding terms like "development build" and "bibliography file"
-   - Knowing if she's filling out the form correctly
-4. The form's complexity and technical nature creates risk concerns:
-   - Fear of providing incorrect information
-   - Uncertainty about the consequences of checking/unchecking boxes
-   - Worry about making mistakes in the technical details
-The page provides too much technical information without clear, step-by-step guidance that would make ABI feel confident about proceeding.</t>
+   - Technical prerequisites that need to be completed before submission
+4. Her process-oriented learning style is challenged as:
+   - No step-by-step guidance on how to fill out the form
+   - Multiple technical requirements without clear explanations
+   - Need to understand and follow external links for additional information
+The page presents too much technical information and requirements without adequate guidance, making ABI unsure if she's in the right place or capable of completing the task correctly.</t>
         </is>
       </c>
     </row>
@@ -572,29 +581,35 @@
         <is>
           <t>Answer: NO
 Facets:
-1. Information Processing Style
-2. Computer Self-Efficacy
-3. Attitude toward Risk
-4. None of the Above (Complex form with technical requirements)
+1. Computer Self-Efficacy
+2. Information Processing Style
+3. Learning Style
+4. Attitude toward Risk
+5. None of the Above (Form Complexity)
 Why: ABI will struggle to fill out this form because:
-1. Information Processing Style concerns:
-   - Multiple sections require technical information that needs comprehensive understanding
-   - Links to external resources ("list of existing issues", "builds.jabref.org") create additional cognitive load
-   - Instructions are scattered throughout the form rather than presented in a clear, sequential manner
-2. Computer Self-Efficacy issues:
-   - Technical terms like "development build", "bibliography file", "Log File" are not explained
-   - Required fields (marked with asterisks) involve technical knowledge
-   - No clear guidance on how to find some of the required technical information
-3. Risk Aversion factors:
-   - Warnings about backups create anxiety about potential data loss
-   - Uncertainty about the consequences of providing incorrect information
-   - No clear indication if entries can be modified after submission
-4. Additional barriers:
-   - Form requires technical details that ABI might not know how to obtain
-   - No step-by-step guidance for filling out each section
-   - Checkboxes with technical requirements might be confusing
-   - The form assumes technical knowledge about JabRef versions and operating systems
-The complexity and technical nature of the form, combined with lack of clear guidance, would make ABI uncomfortable and uncertain about how to proceed correctly.</t>
+1. Low computer self-efficacy is challenged by:
+   - Technical requirements like "JabRef version" and "development build"
+   - System-specific information needs
+   - Technical terminology throughout the form
+   - Checkboxes about development versions and testing
+2. Her comprehensive information processing style is overwhelmed by:
+   - Multiple fields requiring different types of information
+   - Links to external resources that need to be checked
+   - Need to understand and process technical prerequisites
+3. Her process-oriented learning style isn't supported:
+   - No clear step-by-step guidance
+   - Complex instructions scattered throughout
+   - Multiple technical concepts introduced without explanation
+4. Risk-averse nature is triggered by:
+   - Required fields (marked with asterisks) creating pressure
+   - Uncertainty about technical requirements
+   - Fear of making mistakes in technical details
+5. The form is overwhelming because:
+   - Too many technical requirements at once
+   - Complex prerequisites about testing latest versions
+   - Need to provide detailed technical information
+   - Multiple external links and references to check
+The form requires technical knowledge and confidence that doesn't align with ABI's characteristics, making it difficult for her to complete successfully.</t>
         </is>
       </c>
     </row>
@@ -603,31 +618,34 @@
         <is>
           <t>Answer: NO
 Facets:
-1. Information Processing Style
-2. Computer Self-Efficacy
-3. Attitude toward Risk
-4. None of the Above (Lack of confirmation/feedback)
-Why: ABI will be uncertain about her progress because:
-1. Information Processing Style issues:
-   - No clear indication if the information provided is sufficient or correct
-   - Technical details in the form (like log files and version numbers) lack explanation
-   - Multiple sections with different requirements create confusion about completeness
-2. Computer Self-Efficacy concerns:
-   - The markdown editor and its formatting options might be intimidating
-   - Technical terms in the form remain unexplained
-   - No validation feedback about whether entered information is correct
-   - Uncertainty about whether the technical details provided are adequate
-3. Risk-related concerns:
-   - No preview of how the submitted issue will look
-   - No clear indication if she can edit the issue after submission
-   - Uncertainty about whether checking the backup-related boxes was correct
-   - No confirmation about whether the steps provided are sufficient
-4. Additional barriers:
-   - No immediate feedback about the completeness of required fields
-   - No indication of what happens after clicking "Submit new issue"
-   - Lack of confirmation that the information provided is what developers need
-   - No clear way to verify if all necessary information has been included
-Even though ABI has filled out the form, she won't feel confident that she's done it correctly or completely due to the lack of clear feedback and confirmation.</t>
+1. Computer Self-Efficacy
+2. Information Processing Style
+3. Learning Style
+4. Attitude toward Risk
+5. None of the Above (Uncertainty about correctness)
+Why: ABI will be uncertain about whether she filled out the form correctly because:
+1. Low computer self-efficacy is challenged by:
+   - Technical form elements like markdown editor
+   - Uncertainty about whether the technical details provided are correct
+   - Complex checkboxes about development versions
+   - No confirmation that entered information is in the right format
+2. Her comprehensive information processing style is unsatisfied:
+   - No clear feedback about whether the information provided is sufficient
+   - Uncertainty about whether all required steps were followed correctly
+   - Multiple technical fields without validation feedback
+3. Her process-oriented learning style isn't supported:
+   - No confirmation that each step was completed correctly
+   - No guidance about whether the format of entered information is correct
+   - Unclear if the steps provided are detailed enough
+4. Risk-averse nature is triggered by:
+   - No preview of how the submission will look
+   - Uncertainty about whether technical details are correct
+   - Fear of submitting incomplete or incorrect information
+5. Additional uncertainty because:
+   - No immediate feedback about the quality of the report
+   - No indication if all required information is properly formatted
+   - No confirmation that the technical details provided are sufficient
+Even after filling out the form, ABI won't be confident that she's provided all the necessary information in the correct way, leading to uncertainty about submitting the form.</t>
         </is>
       </c>
     </row>
@@ -639,28 +657,26 @@
 1. Computer Self-Efficacy
 2. Attitude toward Risk
 3. Information Processing Style
-4. None of the Above (Uncertainty about form completeness)
+4. None of the Above (Uncertainty about completeness)
 Why: ABI will hesitate to click 'Submit new issue' because:
-1. Computer Self-Efficacy concerns:
-   - Uncertainty about whether she's filled out all technical fields correctly
-   - Doubt about whether the provided log file format is correct
-   - Unsure if the operating system and version details are sufficient
-2. Risk-related concerns:
-   - No clear indication if she can edit the issue after submission
-   - No preview of how the complete issue will appear
-   - Fear of submitting incomplete or incorrect information
-   - Concern about the consequences of potential mistakes
-3. Information Processing Style issues:
-   - No clear confirmation that all required fields are properly filled
-   - No summary or review step before final submission
-   - Unclear if all the technical requirements have been met
-   - No validation feedback about the completeness of the form
-4. Additional barriers:
-   - No clear indication of what happens after clicking submit
-   - No way to verify if the information provided is sufficient
-   - Lack of confirmation about whether all required fields are filled correctly
-   - Uncertainty about whether the technical details are in the right format
-Given ABI's careful nature and need for confirmation, she would want more validation and assurance before taking this final step.</t>
+1. Low computer self-efficacy makes her uncertain about:
+   - Whether she's provided all the required technical information correctly
+   - If the format of her bug report meets the expected standards
+   - If the technical details she entered are sufficient
+2. Risk-averse nature is triggered by:
+   - Fear of submitting an incomplete or incorrect report
+   - Concern about the asterisk-marked required fields being properly filled
+   - Worry about the consequences of submitting incorrect information
+3. Her comprehensive information processing style is unsatisfied because:
+   - No clear validation of the entered information
+   - Uncertainty about whether all required fields are properly completed
+   - No confirmation that the technical details are in the right format
+4. Additional uncertainties:
+   - No clear feedback about form completeness
+   - No preview of how the submission will appear to others
+   - No confirmation that all required steps have been followed correctly
+   - Unclear if the markdown formatting is correct
+ABI would be hesitant to submit without being completely sure that everything is correct and complete, and the page doesn't provide enough confirmation or validation to give her that confidence.</t>
         </is>
       </c>
     </row>
@@ -673,24 +689,24 @@
 2. Computer Self-Efficacy
 3. Motivations
 Why: ABI will know she successfully created the issue because:
-1. Clear confirmation indicators:
-   - The issue number (#11601) is displayed at the top
-   - There's a green "Open" status indicator
-   - All her submitted information is visible and formatted properly
-   - The page shows her as the issue creator
-2. Satisfies her information processing style:
-   - She can see all the information she entered displayed in an organized format
-   - The submission appears as a complete, structured post
-   - She can verify all the details she provided are included
-3. Reduces computer self-efficacy concerns:
-   - The interface shows her issue was successfully created
-   - All sections are clearly displayed and organized
-   - No error messages or warnings are present
-4. Confirms her goal achievement:
-   - The page clearly shows she's created a new issue
-   - The interface provides options for further interaction (like adding comments)
-   - She can see her issue is now part of the official tracking system
-The clear feedback and organized display of her submitted information would give ABI confidence that she successfully completed her task.</t>
+1. The page provides clear confirmation feedback:
+   - Shows the issue number (#11601)
+   - Displays "Open" status in green
+   - Shows her submitted content clearly formatted
+   - Indicates "0 comments" showing it's a new issue
+2. Supports her computer self-efficacy by:
+   - Displaying all her entered information in an organized format
+   - Showing that the submission was accepted without errors
+   - Providing a clear view of the complete submission
+3. Satisfies her comprehensive information processing style:
+   - All sections of her submission are visible and properly formatted
+   - The page structure clearly shows it's an active issue
+   - The status indicators (Open, tasks done) provide clear feedback
+4. Confirms her goal achievement by:
+   - Showing the issue is successfully created and active
+   - Providing a complete view of the submitted information
+   - Offering options for further interaction (add comment, edit)
+The page provides clear confirmation that her issue was successfully created and properly recorded in the system.</t>
         </is>
       </c>
     </row>
